--- a/budget.xlsx
+++ b/budget.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bastou\Documents\Cours\P2_Java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bastou\Documents\Cours\P2_Java\p2-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,35 +24,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Spécification</t>
   </si>
   <si>
-    <t>40 heures</t>
-  </si>
-  <si>
     <t>Conception</t>
   </si>
   <si>
-    <t>30 heures</t>
-  </si>
-  <si>
     <t>Résolution sans animation d’un système de m équations à n inconnus.</t>
   </si>
   <si>
-    <t>20 heures</t>
-  </si>
-  <si>
     <t>Résolution avec animation d'un système de maximum 5 équations à n inconnues.</t>
   </si>
   <si>
     <t>Configurations</t>
   </si>
   <si>
-    <t>25 heures</t>
-  </si>
-  <si>
     <t>Ajouter une visualisation graphique du système lorsque le nombre d'inconnues est inférieur ou égal à 3  (plans, droites, points)</t>
   </si>
   <si>
@@ -62,9 +50,6 @@
     <t>Budget intermédiaire</t>
   </si>
   <si>
-    <t>10'000 ₳</t>
-  </si>
-  <si>
     <t>Taxes</t>
   </si>
   <si>
@@ -74,10 +59,22 @@
     <t>Budget final</t>
   </si>
   <si>
-    <t>13’300 ₳</t>
-  </si>
-  <si>
     <t>Fonctionalités</t>
+  </si>
+  <si>
+    <t>90 heures</t>
+  </si>
+  <si>
+    <t>80 heures</t>
+  </si>
+  <si>
+    <t>70 heures</t>
+  </si>
+  <si>
+    <t>31'500 ₳</t>
+  </si>
+  <si>
+    <t>41’895 ₳</t>
   </si>
 </sst>
 </file>
@@ -451,13 +448,13 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -468,77 +465,101 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
       </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
         <v>7</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
       </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
         <v>8</v>
       </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B11" s="8">
         <v>0.08</v>
@@ -547,16 +568,20 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B12" s="8">
         <v>0.25</v>
       </c>
+      <c r="D12">
+        <f>SUM(D2:D9)</f>
+        <v>63</v>
+      </c>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>16</v>
